--- a/PAPER/plots/runoff-tri.xlsx
+++ b/PAPER/plots/runoff-tri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaoy0a/Desktop/GitHub/Dengue/nowcastingTemporal/PAPER/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305779E2-F308-1C49-A13C-CBE1E6514D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C97196-5535-F845-9361-5334ABDB77F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26880" windowHeight="15420" xr2:uid="{FDC9D883-DFA4-FC4A-A20A-D06596F0038B}"/>
+    <workbookView xWindow="-58020" yWindow="-6940" windowWidth="37840" windowHeight="21400" xr2:uid="{FDC9D883-DFA4-FC4A-A20A-D06596F0038B}"/>
   </bookViews>
   <sheets>
     <sheet name="runoff-tri" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
-  <si>
-    <t>Time</t>
-  </si>
   <si>
     <t>...</t>
   </si>
@@ -53,6 +50,9 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>Time\Delay</t>
   </si>
 </sst>
 </file>
@@ -195,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,8 +375,26 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -491,6 +509,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -536,8 +563,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -594,6 +635,9125 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20AA2977-BB77-DC95-E0C5-D6EFE8CCFB16}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6604001" y="2038350"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1,0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20AA2977-BB77-DC95-E0C5-D6EFE8CCFB16}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6604001" y="2038350"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_1,0</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF46843B-F3F1-5B4D-84BE-8E48F8087CD9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6604000" y="2235200"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2,0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF46843B-F3F1-5B4D-84BE-8E48F8087CD9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6604000" y="2235200"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_2,0</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4AB200E-BFC9-F44A-8248-AA4C8713EFBC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6604000" y="2438400"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>3,0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4AB200E-BFC9-F44A-8248-AA4C8713EFBC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6604000" y="2438400"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_3,0</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E5E799-9DBA-164A-9D7D-A8B1E28BB98B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6604000" y="2844800"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>,0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E5E799-9DBA-164A-9D7D-A8B1E28BB98B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6604000" y="2844800"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇-𝐷,0)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34633A0F-24F4-714F-B667-B7864C525031}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6604000" y="3048000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+1,0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34633A0F-24F4-714F-B667-B7864C525031}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6604000" y="3048000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇-𝐷+1,0)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B93158-95F9-CD41-A7E9-E041B76502E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6610350" y="3257550"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+2,0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B93158-95F9-CD41-A7E9-E041B76502E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6610350" y="3257550"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇-𝐷+2,0)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="TextBox 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E74EC99-73E0-174C-BDED-240890033732}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6604000" y="3657600"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-2,0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="TextBox 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E74EC99-73E0-174C-BDED-240890033732}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6604000" y="3657600"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇-2,0)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="TextBox 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC910EFA-DB80-5F4F-A729-E9911420B9E7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6604000" y="3860800"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-1,0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="TextBox 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC910EFA-DB80-5F4F-A729-E9911420B9E7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6604000" y="3860800"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇-1,0)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="TextBox 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3702B2BE-A114-E347-8CF8-D1EC65887634}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6604000" y="4064000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>,0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="TextBox 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3702B2BE-A114-E347-8CF8-D1EC65887634}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6604000" y="4064000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇,0)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="TextBox 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{826FBACD-95F2-2447-A9F1-E036FFDB2046}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7429500" y="2032000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1,1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="TextBox 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{826FBACD-95F2-2447-A9F1-E036FFDB2046}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7429500" y="2032000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_1,1</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="TextBox 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D19D26D-068C-2149-9D2C-B81F0002E367}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8255000" y="2032000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1,2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="TextBox 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D19D26D-068C-2149-9D2C-B81F0002E367}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8255000" y="2032000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_1,2</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="TextBox 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF33AA5-49C4-194C-928A-ED74AEF8F454}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9906000" y="2032000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="TextBox 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF33AA5-49C4-194C-928A-ED74AEF8F454}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9906000" y="2032000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(1,𝐷-1)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="TextBox 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E019E717-49E6-EE43-B9F9-A4D6483B22E3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10731500" y="2032000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="TextBox 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E019E717-49E6-EE43-B9F9-A4D6483B22E3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10731500" y="2032000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(1,𝐷)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="TextBox 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BF3A17F-81E0-F344-81FC-A99F19644BEA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11557000" y="2032000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑁</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="TextBox 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BF3A17F-81E0-F344-81FC-A99F19644BEA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11557000" y="2032000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑁_1</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="TextBox 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25E4AAB4-40D3-0A42-92AA-5F9F2EBE2556}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7429500" y="2235200"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1,1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="TextBox 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25E4AAB4-40D3-0A42-92AA-5F9F2EBE2556}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7429500" y="2235200"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_1,1</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="TextBox 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBFBD928-B797-964D-9156-3A6AEE81AEF3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8255000" y="2235200"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1,2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="TextBox 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBFBD928-B797-964D-9156-3A6AEE81AEF3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8255000" y="2235200"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_1,2</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="TextBox 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E150EB74-15A5-5A4E-98ED-638770911517}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9906000" y="2235200"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="TextBox 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E150EB74-15A5-5A4E-98ED-638770911517}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9906000" y="2235200"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(2,𝐷-1)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="TextBox 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0352C8D-347E-A141-A771-42968EAFD489}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10731500" y="2235200"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="TextBox 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0352C8D-347E-A141-A771-42968EAFD489}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10731500" y="2235200"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(2,𝐷)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="TextBox 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58E58B74-2BA8-4A4F-97D2-D38572E914CA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11557000" y="2235200"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑁</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="TextBox 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58E58B74-2BA8-4A4F-97D2-D38572E914CA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11557000" y="2235200"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑁_2</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="TextBox 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666BCE7A-6539-1B45-A2CC-0982226F4C99}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7429500" y="2438400"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>3,1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="TextBox 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666BCE7A-6539-1B45-A2CC-0982226F4C99}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7429500" y="2438400"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_3,1</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="TextBox 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89597A8A-296E-B146-9237-97740D427428}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8255000" y="2438400"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>3,2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="TextBox 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89597A8A-296E-B146-9237-97740D427428}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8255000" y="2438400"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_3,2</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="TextBox 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70CF5F99-6D10-024E-A0E7-26EE3A2B4AA0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9906000" y="2438400"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>3,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="TextBox 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70CF5F99-6D10-024E-A0E7-26EE3A2B4AA0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9906000" y="2438400"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(3,𝐷-1)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="TextBox 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D40D0080-AEE2-8B4E-9DA5-51FDCE57E4C8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10731500" y="2438400"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>3,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="TextBox 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D40D0080-AEE2-8B4E-9DA5-51FDCE57E4C8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10731500" y="2438400"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(3,𝐷)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="33" name="TextBox 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2829115B-6A4C-E949-B24E-71077CCC45D2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11557000" y="2438400"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑁</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="33" name="TextBox 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2829115B-6A4C-E949-B24E-71077CCC45D2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11557000" y="2438400"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑁_3</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="34" name="TextBox 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4898448-0BEE-D54A-A9C9-4B3D78A81CA2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7429500" y="2844800"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>,1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="34" name="TextBox 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4898448-0BEE-D54A-A9C9-4B3D78A81CA2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7429500" y="2844800"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇-𝐷,1)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="35" name="TextBox 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB04EAC5-C35E-F24D-8C73-EF66EDCB9BCA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8255000" y="2844800"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>,2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="35" name="TextBox 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB04EAC5-C35E-F24D-8C73-EF66EDCB9BCA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8255000" y="2844800"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇-𝐷,2)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="40" name="TextBox 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F282ED54-8B4A-5E47-AC68-C5F7AB9E1D1B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7429500" y="3048000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+1,1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="40" name="TextBox 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F282ED54-8B4A-5E47-AC68-C5F7AB9E1D1B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7429500" y="3048000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇-𝐷+1,1)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="41" name="TextBox 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFC8D557-3CD5-F443-B036-1F0E34181B64}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8255000" y="3048000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+1,2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="41" name="TextBox 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFC8D557-3CD5-F443-B036-1F0E34181B64}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8255000" y="3048000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇-𝐷+1,2)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="42" name="TextBox 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{068E57DB-1809-9F43-A373-8B28938ADEEA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7429500" y="3251200"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+2,1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="42" name="TextBox 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{068E57DB-1809-9F43-A373-8B28938ADEEA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7429500" y="3251200"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇-𝐷+2,1)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="43" name="TextBox 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{499F95B1-B1FB-DD4F-A070-72E9B41A4588}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8255000" y="3251200"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+2,2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="43" name="TextBox 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{499F95B1-B1FB-DD4F-A070-72E9B41A4588}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8255000" y="3251200"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇-𝐷+2,2)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="44" name="TextBox 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A56E7D-0089-FD4F-AC7C-0F21946ADAC0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7429500" y="3657600"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-2,1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="44" name="TextBox 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A56E7D-0089-FD4F-AC7C-0F21946ADAC0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7429500" y="3657600"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇-2,1)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="45" name="TextBox 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FB89EAD-0DDC-8E41-9E2C-0902FC9C1956}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8255000" y="3657600"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-2,2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="45" name="TextBox 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FB89EAD-0DDC-8E41-9E2C-0902FC9C1956}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8255000" y="3657600"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇-2,2)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="46" name="TextBox 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C906C8-270A-0647-842D-D98E67A06998}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9906000" y="2844800"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="46" name="TextBox 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C906C8-270A-0647-842D-D98E67A06998}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9906000" y="2844800"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇-𝐷,𝐷-1)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="47" name="TextBox 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{659F6003-71C9-8148-96FE-B726F8B893A8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10731500" y="2844800"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="47" name="TextBox 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{659F6003-71C9-8148-96FE-B726F8B893A8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10731500" y="2844800"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇-𝐷,𝐷)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="48" name="TextBox 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C57E7D5E-EDBC-7941-9E0D-FB6851F7158F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11557000" y="2844800"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑁</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="48" name="TextBox 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C57E7D5E-EDBC-7941-9E0D-FB6851F7158F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11557000" y="2844800"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑁_(𝑇-𝐷)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="49" name="TextBox 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5BA8B7D-D6F9-964D-9B34-7170700509C2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9906000" y="3048000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+1,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="49" name="TextBox 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5BA8B7D-D6F9-964D-9B34-7170700509C2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9906000" y="3048000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇-𝐷+1,𝐷-1)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="50" name="TextBox 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479AD99F-A0D0-EB43-AA5B-5F2C6F05E341}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10731500" y="3048000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+1,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="50" name="TextBox 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479AD99F-A0D0-EB43-AA5B-5F2C6F05E341}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10731500" y="3048000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇-𝐷+1,𝐷)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="51" name="TextBox 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E1F4C5-8141-D34A-821E-D88EBCBD6232}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11557000" y="3048000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑁</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="51" name="TextBox 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E1F4C5-8141-D34A-821E-D88EBCBD6232}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11557000" y="3048000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑁_(𝑇-𝐷+1)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="52" name="TextBox 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{164AADA2-BE10-1E49-96CC-99436A568D50}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9906000" y="3251200"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+2,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="52" name="TextBox 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{164AADA2-BE10-1E49-96CC-99436A568D50}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9906000" y="3251200"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇-𝐷+2,𝐷-1)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="53" name="TextBox 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE6BF27-17EA-5141-A8B1-A3982B7D62B1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10731500" y="3251200"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+2,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="53" name="TextBox 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE6BF27-17EA-5141-A8B1-A3982B7D62B1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10731500" y="3251200"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇-𝐷+2,𝐷)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="54" name="TextBox 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02644AE9-C559-6448-8195-A366AEA9D47F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11557000" y="3251200"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑁</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="54" name="TextBox 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02644AE9-C559-6448-8195-A366AEA9D47F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11557000" y="3251200"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑁_(𝑇-𝐷+2)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="55" name="TextBox 54">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F52DB7-7DD9-3241-89F6-3CB9069454C9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9906000" y="3657600"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-2,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="55" name="TextBox 54">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F52DB7-7DD9-3241-89F6-3CB9069454C9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9906000" y="3657600"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇-2,𝐷-1)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="56" name="TextBox 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EC03A96-3906-B740-B017-C657D1A083BA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10731500" y="3657600"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-2,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="56" name="TextBox 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EC03A96-3906-B740-B017-C657D1A083BA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10731500" y="3657600"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇-2,𝐷)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="57" name="TextBox 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93726624-8800-A748-96CB-42882DF02F2B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11557000" y="3657600"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑁</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="57" name="TextBox 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93726624-8800-A748-96CB-42882DF02F2B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11557000" y="3657600"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑁_(𝑇-2)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="58" name="TextBox 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{526ED24B-99E3-2944-AEB5-8E3214874AEC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7429500" y="3860800"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-1,1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="58" name="TextBox 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{526ED24B-99E3-2944-AEB5-8E3214874AEC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7429500" y="3860800"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇-1,1)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="59" name="TextBox 58">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27A7F92C-57A9-A74A-9110-427C68CF9095}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8255000" y="3860800"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-1,2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="59" name="TextBox 58">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27A7F92C-57A9-A74A-9110-427C68CF9095}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8255000" y="3860800"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇-1,2)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60" name="TextBox 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A98D6D2-5316-DD49-9ECA-4FADD4323A48}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9906000" y="3860800"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-1,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60" name="TextBox 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A98D6D2-5316-DD49-9ECA-4FADD4323A48}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9906000" y="3860800"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇-1,𝐷-1)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="61" name="TextBox 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D983B338-AE5B-CA4D-A2D4-0BB4486BA6EF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10731500" y="3860800"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-1,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="61" name="TextBox 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D983B338-AE5B-CA4D-A2D4-0BB4486BA6EF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10731500" y="3860800"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇-1,𝐷)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="62" name="TextBox 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63E2119-F67A-7D46-8CAE-CAC6D3F8B56E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11557000" y="3860800"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑁</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="62" name="TextBox 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63E2119-F67A-7D46-8CAE-CAC6D3F8B56E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11557000" y="3860800"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑁_(𝑇-1)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="63" name="TextBox 62">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F3BC8A-C4C2-EA49-A584-295B2BB5DB52}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7429500" y="4064000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>,1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="63" name="TextBox 62">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F3BC8A-C4C2-EA49-A584-295B2BB5DB52}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7429500" y="4064000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇,1)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="64" name="TextBox 63">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5BCDB28-7D8A-9047-9C40-3B342A3CE12A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8255000" y="4064000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>,2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="64" name="TextBox 63">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5BCDB28-7D8A-9047-9C40-3B342A3CE12A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8255000" y="4064000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇,2)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="65" name="TextBox 64">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{279498D9-EFAE-0047-A36B-7D47DC8E6041}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9906000" y="4064000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>-1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="65" name="TextBox 64">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{279498D9-EFAE-0047-A36B-7D47DC8E6041}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9906000" y="4064000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇,𝐷-1)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="66" name="TextBox 65">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0593DFB9-B069-8145-A3C9-7ADEDD6A08A4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10731500" y="4064000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑌</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="66" name="TextBox 65">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0593DFB9-B069-8145-A3C9-7ADEDD6A08A4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10731500" y="4064000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌_(𝑇,𝐷)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="196849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="67" name="TextBox 66">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2C2C458-07A7-0846-9D67-F6747E42A34C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11557000" y="4064000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑁</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="67" name="TextBox 66">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2C2C458-07A7-0846-9D67-F6747E42A34C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11557000" y="4064000"/>
+              <a:ext cx="781050" cy="196849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑁_𝑇</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -913,117 +10073,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269CEEB3-BDE7-5F42-AD89-505C704C1950}">
-  <dimension ref="H10:O21"/>
+  <dimension ref="G8:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="200" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="10" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H10" t="s">
+    <row r="8" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G10" s="5"/>
+      <c r="H10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="6">
         <v>0</v>
       </c>
-      <c r="I10">
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6">
+        <v>2</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J10">
+      <c r="M10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K10">
+      <c r="N10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L10" t="s">
+      <c r="O10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G11" s="5"/>
+      <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="M10" t="s">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G12" s="5"/>
+      <c r="H12" s="2">
         <v>2</v>
       </c>
-      <c r="N10" t="s">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G13" s="5"/>
+      <c r="H13" s="2">
         <v>3</v>
       </c>
-      <c r="O10" t="s">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G14" s="5"/>
+      <c r="H14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G15" s="5"/>
+      <c r="H15" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="5"/>
     </row>
-    <row r="11" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="L12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H14" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H15" t="s">
+    <row r="16" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G16" s="5"/>
+      <c r="H16" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="5"/>
     </row>
-    <row r="16" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H16" t="s">
+    <row r="17" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G17" s="5"/>
+      <c r="H17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L16" t="s">
-        <v>1</v>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G18" s="5"/>
+      <c r="H18" s="2" t="s">
+        <v>0</v>
       </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="5"/>
     </row>
-    <row r="17" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H17" t="s">
+    <row r="19" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G19" s="5"/>
+      <c r="H19" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="5"/>
     </row>
-    <row r="18" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H18" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H19" t="s">
+    <row r="20" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G20" s="5"/>
+      <c r="H20" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="5"/>
     </row>
-    <row r="20" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H20" t="s">
+    <row r="21" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G21" s="5"/>
+      <c r="H21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L20" t="s">
-        <v>1</v>
-      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="5"/>
     </row>
-    <row r="21" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H21" t="s">
-        <v>10</v>
-      </c>
+    <row r="22" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>